--- a/online_alert_value/Alert.xlsx
+++ b/online_alert_value/Alert.xlsx
@@ -13,7 +13,7 @@
     <sheet name="线上道具获取途径" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="规则说明" sheetId="5" r:id="rId5"/>
     <sheet name="货币类型" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
     <sheet name="线上消息列表" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
@@ -1268,9 +1268,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1310,14 +1310,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1331,7 +1331,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1345,9 +1352,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1369,6 +1376,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1386,23 +1423,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1416,18 +1437,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1441,20 +1455,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1475,7 +1475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,7 +1493,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,19 +1565,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,13 +1595,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,121 +1655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,15 +1666,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1693,6 +1684,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1704,15 +1728,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1751,166 +1766,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2256,36 +2256,18 @@
   <sheetPr/>
   <dimension ref="A1:AD133"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AE14" sqref="AE14"/>
+      <selection pane="bottomLeft" activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.2"/>
   <cols>
-    <col min="1" max="1" width="29.6071428571429" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="7.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9" style="5" customWidth="1"/>
-    <col min="7" max="10" width="7.625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="5" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="5" customWidth="1"/>
-    <col min="14" max="14" width="7.25" style="5" customWidth="1"/>
-    <col min="15" max="16" width="9.5" style="5" customWidth="1"/>
-    <col min="17" max="17" width="7.125" style="5" customWidth="1"/>
-    <col min="18" max="19" width="9" style="5" customWidth="1"/>
-    <col min="20" max="22" width="9" style="4" customWidth="1"/>
-    <col min="23" max="23" width="9.71428571428571" style="4" customWidth="1"/>
-    <col min="24" max="24" width="16.375" style="4" customWidth="1"/>
-    <col min="25" max="25" width="16.2142857142857" style="4" customWidth="1"/>
-    <col min="26" max="26" width="12.2142857142857" style="4" customWidth="1"/>
-    <col min="27" max="27" width="13.2857142857143" style="4" customWidth="1"/>
-    <col min="28" max="28" width="9.42857142857143" style="4" customWidth="1"/>
-    <col min="29" max="29" width="11.7142857142857" style="4" customWidth="1"/>
-    <col min="30" max="30" width="7.57142857142857" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="4" customWidth="1"/>
+    <col min="3" max="19" width="6.75" style="5" customWidth="1"/>
+    <col min="20" max="30" width="6.75" style="4" customWidth="1"/>
     <col min="31" max="16384" width="9" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2356,28 +2338,28 @@
       <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2445,28 +2427,28 @@
       <c r="V2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2668,7 +2650,7 @@
         <v>-1</v>
       </c>
       <c r="E5" s="5">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="F5" s="5">
         <v>-1</v>
@@ -2760,10 +2742,10 @@
         <v>-1</v>
       </c>
       <c r="E6" s="5">
-        <v>3000000</v>
+        <v>-1</v>
       </c>
       <c r="F6" s="5">
-        <v>30000000</v>
+        <v>-1</v>
       </c>
       <c r="G6" s="5">
         <v>3000</v>
@@ -2814,7 +2796,7 @@
         <v>-1</v>
       </c>
       <c r="W6" s="4">
-        <v>-1</v>
+        <v>1000</v>
       </c>
       <c r="X6" s="4">
         <v>-1</v>
@@ -2897,10 +2879,10 @@
         <v>10</v>
       </c>
       <c r="T7" s="4">
-        <v>-1</v>
+        <v>10000</v>
       </c>
       <c r="U7" s="4">
-        <v>-1</v>
+        <v>100000</v>
       </c>
       <c r="V7" s="4">
         <v>-1</v>
@@ -2918,7 +2900,7 @@
         <v>-1</v>
       </c>
       <c r="AA7" s="4">
-        <v>-1</v>
+        <v>50000</v>
       </c>
       <c r="AB7" s="4">
         <v>-1</v>
@@ -3214,7 +3196,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="5">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="D11" s="5">
         <v>-1</v>
@@ -3766,7 +3748,7 @@
         <v>88</v>
       </c>
       <c r="C17" s="5">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D17" s="5">
         <v>-1</v>
@@ -3858,7 +3840,7 @@
         <v>90</v>
       </c>
       <c r="C18" s="5">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D18" s="5">
         <v>-1</v>
@@ -4146,7 +4128,7 @@
         <v>-1</v>
       </c>
       <c r="G21" s="5">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="H21" s="5">
         <v>-1</v>
@@ -4330,7 +4312,7 @@
         <v>-1</v>
       </c>
       <c r="G23" s="5">
-        <v>-1</v>
+        <v>200000</v>
       </c>
       <c r="H23" s="5">
         <v>-1</v>
@@ -4606,7 +4588,7 @@
         <v>-1</v>
       </c>
       <c r="G26" s="5">
-        <v>-1</v>
+        <v>200000</v>
       </c>
       <c r="H26" s="5">
         <v>-1</v>
@@ -4778,7 +4760,7 @@
         <v>110</v>
       </c>
       <c r="C28" s="5">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="D28" s="5">
         <v>-1</v>
@@ -6630,7 +6612,7 @@
         <v>-1</v>
       </c>
       <c r="G48" s="5">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="H48" s="5">
         <v>-1</v>
@@ -7951,7 +7933,7 @@
         <v>-1</v>
       </c>
       <c r="R62" s="5">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="S62" s="5">
         <v>-1</v>
@@ -8378,7 +8360,7 @@
         <v>-1</v>
       </c>
       <c r="G67" s="5">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H67" s="5">
         <v>-1</v>
@@ -8420,7 +8402,7 @@
         <v>-1</v>
       </c>
       <c r="U67" s="4">
-        <v>-1</v>
+        <v>5000</v>
       </c>
       <c r="V67" s="4">
         <v>-1</v>
@@ -8574,10 +8556,10 @@
         <v>-1</v>
       </c>
       <c r="K69" s="5">
+        <v>20000</v>
+      </c>
+      <c r="L69" s="5">
         <v>50000</v>
-      </c>
-      <c r="L69" s="5">
-        <v>-1</v>
       </c>
       <c r="M69" s="5">
         <v>-1</v>
@@ -9102,7 +9084,7 @@
         <v>204</v>
       </c>
       <c r="C75" s="5">
-        <v>-1</v>
+        <v>500000</v>
       </c>
       <c r="D75" s="5">
         <v>-1</v>
@@ -9114,7 +9096,7 @@
         <v>-1</v>
       </c>
       <c r="G75" s="5">
-        <v>-1</v>
+        <v>500000</v>
       </c>
       <c r="H75" s="5">
         <v>-1</v>
@@ -9135,7 +9117,7 @@
         <v>-1</v>
       </c>
       <c r="N75" s="5">
-        <v>-1</v>
+        <v>500000</v>
       </c>
       <c r="O75" s="5">
         <v>-1</v>
@@ -9150,13 +9132,13 @@
         <v>-1</v>
       </c>
       <c r="S75" s="5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T75" s="4">
-        <v>-1</v>
+        <v>500000</v>
       </c>
       <c r="U75" s="4">
-        <v>-1</v>
+        <v>500000</v>
       </c>
       <c r="V75" s="4">
         <v>-1</v>
@@ -9862,7 +9844,7 @@
         <v>-1</v>
       </c>
       <c r="K83" s="5">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="L83" s="5">
         <v>-1</v>
@@ -11218,7 +11200,7 @@
         <v>248</v>
       </c>
       <c r="C98" s="5">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D98" s="5">
         <v>-1</v>
@@ -11251,7 +11233,7 @@
         <v>-1</v>
       </c>
       <c r="N98" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O98" s="5">
         <v>-1</v>
@@ -12189,7 +12171,7 @@
         <v>-1</v>
       </c>
       <c r="T108" s="4">
-        <v>-1</v>
+        <v>2000000</v>
       </c>
       <c r="U108" s="4">
         <v>-1</v>
@@ -12474,7 +12456,7 @@
         <v>-1</v>
       </c>
       <c r="W111" s="4">
-        <v>-1</v>
+        <v>9999999</v>
       </c>
       <c r="X111" s="4">
         <v>-1</v>
@@ -13379,7 +13361,7 @@
         <v>-1</v>
       </c>
       <c r="R121" s="5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="S121" s="5">
         <v>-1</v>
@@ -13747,7 +13729,7 @@
         <v>-1</v>
       </c>
       <c r="R125" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S125" s="5">
         <v>-1</v>
@@ -14438,31 +14420,31 @@
         <v>317</v>
       </c>
       <c r="C133" s="5">
-        <v>100000</v>
+        <v>-1</v>
       </c>
       <c r="D133" s="5">
-        <v>10000</v>
+        <v>-1</v>
       </c>
       <c r="E133" s="5">
-        <v>1000000</v>
+        <v>-1</v>
       </c>
       <c r="F133" s="5">
-        <v>1000000</v>
+        <v>-1</v>
       </c>
       <c r="G133" s="5">
-        <v>100000</v>
+        <v>-1</v>
       </c>
       <c r="H133" s="5">
         <v>1000</v>
       </c>
       <c r="I133" s="5">
-        <v>100000</v>
+        <v>-1</v>
       </c>
       <c r="J133" s="5">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="K133" s="5">
-        <v>100000</v>
+        <v>-1</v>
       </c>
       <c r="L133" s="5">
         <v>10000</v>
@@ -14489,22 +14471,22 @@
         <v>100</v>
       </c>
       <c r="T133" s="4">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="U133" s="4">
-        <v>100000</v>
+        <v>-1</v>
       </c>
       <c r="V133" s="4">
         <v>1000</v>
       </c>
       <c r="W133" s="4">
-        <v>300000</v>
+        <v>-1</v>
       </c>
       <c r="X133" s="4">
-        <v>1200</v>
+        <v>-1</v>
       </c>
       <c r="Y133" s="4">
-        <v>10000</v>
+        <v>-1</v>
       </c>
       <c r="Z133" s="4">
         <v>500</v>
@@ -14532,10 +14514,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G179"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B95" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G179"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -14543,10 +14525,10 @@
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="26.4821428571429" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
     <col min="5" max="5" width="9.625" customWidth="1"/>
-    <col min="6" max="6" width="11.0089285714286" customWidth="1"/>
-    <col min="7" max="7" width="69.375" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -14805,7 +14787,7 @@
         <v>63</v>
       </c>
       <c r="E12">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -14895,13 +14877,13 @@
         <v>334</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
       </c>
       <c r="E16">
-        <v>3000000</v>
+        <v>3000</v>
       </c>
       <c r="F16" t="s">
         <v>66</v>
@@ -14919,13 +14901,13 @@
         <v>334</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
       </c>
       <c r="E17">
-        <v>30000000</v>
+        <v>1000</v>
       </c>
       <c r="F17" t="s">
         <v>66</v>
@@ -14940,23 +14922,23 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>336</v>
       </c>
       <c r="D18" t="s">
         <v>65</v>
       </c>
       <c r="E18">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="F18" t="s">
         <v>66</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -14967,7 +14949,7 @@
         <v>334</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>65</v>
@@ -14988,23 +14970,23 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C20" t="s">
-        <v>336</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>50000</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -15012,23 +14994,23 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>336</v>
       </c>
       <c r="D21" t="s">
         <v>67</v>
       </c>
       <c r="E21">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="F21" t="s">
         <v>68</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -15036,7 +15018,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C22" t="s">
         <v>336</v>
@@ -15045,7 +15027,7 @@
         <v>67</v>
       </c>
       <c r="E22">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
         <v>68</v>
@@ -15060,23 +15042,23 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C23" t="s">
-        <v>336</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
         <v>67</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="F23" t="s">
         <v>68</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -15087,16 +15069,16 @@
         <v>334</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
@@ -15111,16 +15093,16 @@
         <v>334</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E25">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
@@ -15135,13 +15117,13 @@
         <v>334</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
         <v>69</v>
       </c>
       <c r="E26">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="F26" t="s">
         <v>70</v>
@@ -15159,13 +15141,13 @@
         <v>334</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>69</v>
       </c>
       <c r="E27">
-        <v>400</v>
+        <v>1000000</v>
       </c>
       <c r="F27" t="s">
         <v>70</v>
@@ -15183,16 +15165,16 @@
         <v>334</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E28">
-        <v>1000</v>
+        <v>200000</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
@@ -15207,16 +15189,16 @@
         <v>334</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E29">
-        <v>1000000</v>
+        <v>400</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
@@ -15231,13 +15213,13 @@
         <v>334</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
         <v>71</v>
       </c>
       <c r="E30">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="F30" t="s">
         <v>72</v>
@@ -15255,13 +15237,13 @@
         <v>334</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
         <v>71</v>
       </c>
       <c r="E31">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="F31" t="s">
         <v>72</v>
@@ -15279,16 +15261,16 @@
         <v>334</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E32">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
@@ -15300,19 +15282,19 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C33" t="s">
-        <v>336</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E33">
         <v>1000</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
@@ -15330,13 +15312,13 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E34">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
@@ -15348,23 +15330,23 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C35" t="s">
         <v>336</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -15372,23 +15354,23 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C36" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="F36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -15402,13 +15384,13 @@
         <v>336</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
@@ -15420,23 +15402,23 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>336</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E38">
-        <v>300000</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G38">
         <f t="shared" ref="G38:G69" si="1">IF(OR(B38="asset",B38="prop",B38="vip_exp"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -15450,13 +15432,13 @@
         <v>336</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E39">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
@@ -15468,23 +15450,23 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C40" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E40">
-        <v>100</v>
+        <v>300000</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -15492,23 +15474,23 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>336</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E41">
-        <v>20000</v>
+        <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -15516,23 +15498,23 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>336</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E42">
-        <v>6000</v>
+        <v>100</v>
       </c>
       <c r="F42" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G42">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -15543,13 +15525,13 @@
         <v>334</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
         <v>87</v>
       </c>
       <c r="E43">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F43" t="s">
         <v>88</v>
@@ -15567,13 +15549,13 @@
         <v>334</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
         <v>87</v>
       </c>
       <c r="E44">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F44" t="s">
         <v>88</v>
@@ -15591,16 +15573,16 @@
         <v>334</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E45">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45">
         <f t="shared" si="1"/>
@@ -15615,16 +15597,16 @@
         <v>334</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E46">
         <v>3000</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46">
         <f t="shared" si="1"/>
@@ -15639,13 +15621,13 @@
         <v>334</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
         <v>89</v>
       </c>
       <c r="E47">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="F47" t="s">
         <v>90</v>
@@ -15663,13 +15645,13 @@
         <v>334</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D48" t="s">
         <v>89</v>
       </c>
       <c r="E48">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F48" t="s">
         <v>90</v>
@@ -15687,16 +15669,16 @@
         <v>334</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E49">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G49">
         <f t="shared" si="1"/>
@@ -15711,16 +15693,16 @@
         <v>334</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E50">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
@@ -15735,16 +15717,16 @@
         <v>334</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E51">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G51">
         <f t="shared" si="1"/>
@@ -15759,16 +15741,16 @@
         <v>334</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E52">
-        <v>20000</v>
+        <v>150000</v>
       </c>
       <c r="F52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G52">
         <f t="shared" si="1"/>
@@ -15783,16 +15765,16 @@
         <v>334</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G53">
         <f t="shared" si="1"/>
@@ -15807,16 +15789,16 @@
         <v>334</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E54">
-        <v>700</v>
+        <v>20000</v>
       </c>
       <c r="F54" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G54">
         <f t="shared" si="1"/>
@@ -15834,13 +15816,13 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E55">
-        <v>50</v>
+        <v>200000</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G55">
         <f t="shared" si="1"/>
@@ -15852,23 +15834,23 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C56" t="s">
-        <v>336</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E56">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -15879,16 +15861,16 @@
         <v>334</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E57">
-        <v>500</v>
+        <v>200000</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G57">
         <f t="shared" si="1"/>
@@ -15906,13 +15888,13 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E58">
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58">
         <f t="shared" si="1"/>
@@ -15927,16 +15909,16 @@
         <v>334</v>
       </c>
       <c r="C59" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E59">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G59">
         <f t="shared" si="1"/>
@@ -15948,19 +15930,19 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C60" t="s">
         <v>336</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E60">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G60">
         <f t="shared" si="1"/>
@@ -15975,16 +15957,16 @@
         <v>334</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E61">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G61">
         <f t="shared" si="1"/>
@@ -15999,16 +15981,16 @@
         <v>334</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E62">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G62">
         <f t="shared" si="1"/>
@@ -16026,13 +16008,13 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E63">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G63">
         <f t="shared" si="1"/>
@@ -16044,23 +16026,23 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>336</v>
       </c>
       <c r="D64" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E64">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G64">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -16071,16 +16053,16 @@
         <v>334</v>
       </c>
       <c r="C65" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="E65">
-        <v>45000</v>
+        <v>1200</v>
       </c>
       <c r="F65" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="G65">
         <f t="shared" si="1"/>
@@ -16095,16 +16077,16 @@
         <v>334</v>
       </c>
       <c r="C66" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="E66">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="F66" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="G66">
         <f t="shared" si="1"/>
@@ -16119,16 +16101,16 @@
         <v>334</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="E67">
-        <v>30000</v>
+        <v>600</v>
       </c>
       <c r="F67" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="G67">
         <f t="shared" si="1"/>
@@ -16140,19 +16122,19 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C68" t="s">
-        <v>336</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E68">
-        <v>3000</v>
+        <v>50</v>
       </c>
       <c r="F68" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="G68">
         <f t="shared" si="1"/>
@@ -16170,13 +16152,13 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="E69">
-        <v>5000</v>
+        <v>45000</v>
       </c>
       <c r="F69" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="G69">
         <f t="shared" si="1"/>
@@ -16191,16 +16173,16 @@
         <v>334</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E70">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="F70" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G70">
         <f t="shared" ref="G70:G101" si="2">IF(OR(B70="asset",B70="prop",B70="vip_exp"),1,0)</f>
@@ -16215,16 +16197,16 @@
         <v>334</v>
       </c>
       <c r="C71" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E71">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="F71" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="G71">
         <f t="shared" si="2"/>
@@ -16236,19 +16218,19 @@
         <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>336</v>
       </c>
       <c r="D72" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="E72">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="F72" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="G72">
         <f t="shared" si="2"/>
@@ -16263,16 +16245,16 @@
         <v>334</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E73">
-        <v>150000</v>
+        <v>5000</v>
       </c>
       <c r="F73" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G73">
         <f t="shared" si="2"/>
@@ -16284,19 +16266,19 @@
         <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C74" t="s">
-        <v>336</v>
+        <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E74">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="F74" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G74">
         <f t="shared" si="2"/>
@@ -16314,13 +16296,13 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E75">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="F75" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="G75">
         <f t="shared" si="2"/>
@@ -16338,13 +16320,13 @@
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E76">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="F76" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G76">
         <f t="shared" si="2"/>
@@ -16356,19 +16338,19 @@
         <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C77" t="s">
-        <v>336</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E77">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="F77" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G77">
         <f t="shared" si="2"/>
@@ -16380,23 +16362,23 @@
         <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C78" t="s">
         <v>336</v>
       </c>
       <c r="D78" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E78">
-        <v>1500000</v>
+        <v>1000</v>
       </c>
       <c r="F78" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G78">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -16407,16 +16389,16 @@
         <v>334</v>
       </c>
       <c r="C79" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E79">
-        <v>4500000</v>
+        <v>10000</v>
       </c>
       <c r="F79" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G79">
         <f t="shared" si="2"/>
@@ -16431,16 +16413,16 @@
         <v>334</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E80">
-        <v>12000000</v>
+        <v>20000</v>
       </c>
       <c r="F80" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G80">
         <f t="shared" si="2"/>
@@ -16452,19 +16434,19 @@
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>336</v>
       </c>
       <c r="D81" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E81">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F81" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G81">
         <f t="shared" si="2"/>
@@ -16479,16 +16461,16 @@
         <v>334</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E82">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="F82" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G82">
         <f t="shared" si="2"/>
@@ -16500,23 +16482,23 @@
         <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="D83" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E83">
-        <v>25000</v>
+        <v>1500000</v>
       </c>
       <c r="F83" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G83">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -16524,23 +16506,23 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C84" t="s">
-        <v>336</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E84">
-        <v>250</v>
+        <v>4500000</v>
       </c>
       <c r="F84" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G84">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -16548,19 +16530,19 @@
         <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C85" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E85">
-        <v>100</v>
+        <v>12000000</v>
       </c>
       <c r="F85" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G85">
         <f t="shared" si="2"/>
@@ -16575,16 +16557,16 @@
         <v>334</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E86">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="F86" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G86">
         <f t="shared" si="2"/>
@@ -16599,16 +16581,16 @@
         <v>334</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E87">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="F87" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G87">
         <f t="shared" si="2"/>
@@ -16623,16 +16605,16 @@
         <v>334</v>
       </c>
       <c r="C88" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="E88">
-        <v>11000</v>
+        <v>1200</v>
       </c>
       <c r="F88" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="G88">
         <f t="shared" si="2"/>
@@ -16647,16 +16629,16 @@
         <v>334</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E89">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="F89" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G89">
         <f t="shared" si="2"/>
@@ -16668,23 +16650,23 @@
         <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C90" t="s">
         <v>336</v>
       </c>
       <c r="D90" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E90">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="F90" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G90">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -16692,19 +16674,19 @@
         <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>336</v>
       </c>
       <c r="D91" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E91">
-        <v>300000</v>
+        <v>100</v>
       </c>
       <c r="F91" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G91">
         <f t="shared" si="2"/>
@@ -16716,23 +16698,23 @@
         <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C92" t="s">
-        <v>336</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="F92" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G92">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -16746,13 +16728,13 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E93">
-        <v>1000</v>
+        <v>500000</v>
       </c>
       <c r="F93" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G93">
         <f t="shared" si="2"/>
@@ -16770,13 +16752,13 @@
         <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E94">
-        <v>20000</v>
+        <v>500000</v>
       </c>
       <c r="F94" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G94">
         <f t="shared" si="2"/>
@@ -16788,23 +16770,23 @@
         <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C95" t="s">
         <v>336</v>
       </c>
       <c r="D95" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E95">
-        <v>10</v>
+        <v>500000</v>
       </c>
       <c r="F95" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -16812,23 +16794,23 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>336</v>
       </c>
       <c r="D96" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E96">
-        <v>20000</v>
+        <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G96">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -16839,16 +16821,16 @@
         <v>334</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E97">
-        <v>20000</v>
+        <v>500000</v>
       </c>
       <c r="F97" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="G97">
         <f t="shared" si="2"/>
@@ -16863,16 +16845,16 @@
         <v>334</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E98">
-        <v>1200</v>
+        <v>500000</v>
       </c>
       <c r="F98" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="G98">
         <f t="shared" si="2"/>
@@ -16884,19 +16866,19 @@
         <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C99" t="s">
-        <v>336</v>
+        <v>27</v>
       </c>
       <c r="D99" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E99">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F99" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="G99">
         <f t="shared" si="2"/>
@@ -16908,23 +16890,23 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C100" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E100">
-        <v>10</v>
+        <v>11000</v>
       </c>
       <c r="F100" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="G100">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -16935,16 +16917,16 @@
         <v>334</v>
       </c>
       <c r="C101" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E101">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="F101" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="G101">
         <f t="shared" si="2"/>
@@ -16956,19 +16938,19 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>336</v>
       </c>
       <c r="D102" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E102">
-        <v>100000</v>
+        <v>3000</v>
       </c>
       <c r="F102" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="G102">
         <f t="shared" ref="G102:G133" si="3">IF(OR(B102="asset",B102="prop",B102="vip_exp"),1,0)</f>
@@ -16980,19 +16962,19 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C103" t="s">
-        <v>336</v>
+        <v>22</v>
       </c>
       <c r="D103" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E103">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="F103" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="G103">
         <f t="shared" si="3"/>
@@ -17004,23 +16986,23 @@
         <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>336</v>
       </c>
       <c r="D104" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E104">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="G104">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -17028,19 +17010,19 @@
         <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C105" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="E105">
         <v>1000</v>
       </c>
       <c r="F105" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="G105">
         <f t="shared" si="3"/>
@@ -17055,16 +17037,16 @@
         <v>334</v>
       </c>
       <c r="C106" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E106">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="F106" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="G106">
         <f t="shared" si="3"/>
@@ -17076,23 +17058,23 @@
         <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C107" t="s">
-        <v>4</v>
+        <v>336</v>
       </c>
       <c r="D107" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E107">
-        <v>1000000</v>
+        <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="G107">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -17103,16 +17085,16 @@
         <v>334</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="E108">
-        <v>50</v>
+        <v>20000</v>
       </c>
       <c r="F108" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="G108">
         <f t="shared" si="3"/>
@@ -17124,19 +17106,19 @@
         <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C109" t="s">
-        <v>336</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="E109">
-        <v>50</v>
+        <v>20000</v>
       </c>
       <c r="F109" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="G109">
         <f t="shared" si="3"/>
@@ -17148,19 +17130,19 @@
         <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C110" t="s">
-        <v>336</v>
+        <v>23</v>
       </c>
       <c r="D110" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E110">
-        <v>20000</v>
+        <v>1200</v>
       </c>
       <c r="F110" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="G110">
         <f t="shared" si="3"/>
@@ -17172,23 +17154,23 @@
         <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C111" t="s">
         <v>336</v>
       </c>
       <c r="D111" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="E111">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F111" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="G111">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -17196,23 +17178,23 @@
         <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C112" t="s">
         <v>336</v>
       </c>
       <c r="D112" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E112">
-        <v>1200</v>
+        <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="G112">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -17223,16 +17205,16 @@
         <v>334</v>
       </c>
       <c r="C113" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E113">
-        <v>6750000</v>
+        <v>100000</v>
       </c>
       <c r="F113" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="G113">
         <f t="shared" si="3"/>
@@ -17247,16 +17229,16 @@
         <v>334</v>
       </c>
       <c r="C114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E114">
-        <v>5000000</v>
+        <v>100000</v>
       </c>
       <c r="F114" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="G114">
         <f t="shared" si="3"/>
@@ -17268,19 +17250,19 @@
         <v>111</v>
       </c>
       <c r="B115" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>336</v>
       </c>
       <c r="D115" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E115">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="F115" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="G115">
         <f t="shared" si="3"/>
@@ -17292,19 +17274,19 @@
         <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C116" t="s">
-        <v>336</v>
+        <v>19</v>
       </c>
       <c r="D116" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E116">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="F116" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G116">
         <f t="shared" si="3"/>
@@ -17316,19 +17298,19 @@
         <v>113</v>
       </c>
       <c r="B117" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C117" t="s">
-        <v>4</v>
+        <v>336</v>
       </c>
       <c r="D117" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E117">
-        <v>5000000</v>
+        <v>1000</v>
       </c>
       <c r="F117" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G117">
         <f t="shared" si="3"/>
@@ -17343,16 +17325,16 @@
         <v>334</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E118">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="F118" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G118">
         <f t="shared" si="3"/>
@@ -17364,19 +17346,19 @@
         <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C119" t="s">
-        <v>336</v>
+        <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E119">
-        <v>2000</v>
+        <v>1000000</v>
       </c>
       <c r="F119" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G119">
         <f t="shared" si="3"/>
@@ -17388,19 +17370,19 @@
         <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C120" t="s">
-        <v>336</v>
+        <v>6</v>
       </c>
       <c r="D120" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="E120">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="F120" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="G120">
         <f t="shared" si="3"/>
@@ -17412,23 +17394,23 @@
         <v>117</v>
       </c>
       <c r="B121" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C121" t="s">
         <v>336</v>
       </c>
       <c r="D121" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="E121">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F121" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="G121">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -17436,19 +17418,19 @@
         <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C122" t="s">
-        <v>2</v>
+        <v>336</v>
       </c>
       <c r="D122" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="E122">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="F122" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="G122">
         <f t="shared" si="3"/>
@@ -17460,23 +17442,23 @@
         <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C123" t="s">
         <v>336</v>
       </c>
       <c r="D123" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="E123">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="G123">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -17490,13 +17472,13 @@
         <v>336</v>
       </c>
       <c r="D124" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E124">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G124">
         <f t="shared" si="3"/>
@@ -17511,16 +17493,16 @@
         <v>334</v>
       </c>
       <c r="C125" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E125">
-        <v>10000</v>
+        <v>6750000</v>
       </c>
       <c r="F125" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G125">
         <f t="shared" si="3"/>
@@ -17532,19 +17514,19 @@
         <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C126" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
       <c r="D126" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E126">
-        <v>1000</v>
+        <v>5000000</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G126">
         <f t="shared" si="3"/>
@@ -17556,23 +17538,23 @@
         <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C127" t="s">
-        <v>336</v>
+        <v>6</v>
       </c>
       <c r="D127" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G127">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -17580,19 +17562,19 @@
         <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C128" t="s">
-        <v>2</v>
+        <v>336</v>
       </c>
       <c r="D128" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E128">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="G128">
         <f t="shared" si="3"/>
@@ -17604,19 +17586,19 @@
         <v>125</v>
       </c>
       <c r="B129" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C129" t="s">
-        <v>336</v>
+        <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E129">
-        <v>500</v>
+        <v>5000000</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="G129">
         <f t="shared" si="3"/>
@@ -17628,23 +17610,23 @@
         <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C130" t="s">
-        <v>336</v>
+        <v>6</v>
       </c>
       <c r="D130" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>20000</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="G130">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -17652,19 +17634,19 @@
         <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>336</v>
       </c>
       <c r="D131" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="E131">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F131" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="G131">
         <f t="shared" si="3"/>
@@ -17682,13 +17664,13 @@
         <v>336</v>
       </c>
       <c r="D132" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E132">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="G132">
         <f t="shared" si="3"/>
@@ -17706,13 +17688,13 @@
         <v>336</v>
       </c>
       <c r="D133" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E133">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="G133">
         <f t="shared" si="3"/>
@@ -17724,19 +17706,19 @@
         <v>130</v>
       </c>
       <c r="B134" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C134" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E134">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="G134">
         <f t="shared" ref="G134:G165" si="4">IF(OR(B134="asset",B134="prop",B134="vip_exp"),1,0)</f>
@@ -17748,19 +17730,19 @@
         <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C135" t="s">
         <v>336</v>
       </c>
       <c r="D135" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="E135">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F135" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="G135">
         <f t="shared" si="4"/>
@@ -17778,13 +17760,13 @@
         <v>336</v>
       </c>
       <c r="D136" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="E136">
-        <v>1200</v>
+        <v>50</v>
       </c>
       <c r="F136" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="G136">
         <f t="shared" si="4"/>
@@ -17799,16 +17781,16 @@
         <v>334</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="E137">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="G137">
         <f t="shared" si="4"/>
@@ -17820,19 +17802,19 @@
         <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>336</v>
       </c>
       <c r="D138" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="E138">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F138" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="G138">
         <f t="shared" si="4"/>
@@ -17844,23 +17826,23 @@
         <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C139" t="s">
+        <v>336</v>
+      </c>
+      <c r="D139" t="s">
+        <v>251</v>
+      </c>
+      <c r="E139">
         <v>2</v>
       </c>
-      <c r="D139" t="s">
-        <v>281</v>
-      </c>
-      <c r="E139">
-        <v>100000</v>
-      </c>
       <c r="F139" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="G139">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -17874,13 +17856,13 @@
         <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="E140">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F140" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="G140">
         <f t="shared" si="4"/>
@@ -17892,23 +17874,23 @@
         <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C141" t="s">
         <v>336</v>
       </c>
       <c r="D141" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="E141">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F141" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="G141">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -17916,23 +17898,23 @@
         <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C142" t="s">
         <v>336</v>
       </c>
       <c r="D142" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="E142">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F142" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="G142">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -17940,23 +17922,23 @@
         <v>139</v>
       </c>
       <c r="B143" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C143" t="s">
-        <v>336</v>
+        <v>6</v>
       </c>
       <c r="D143" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="E143">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F143" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="G143">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -17970,13 +17952,13 @@
         <v>336</v>
       </c>
       <c r="D144" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="E144">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F144" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="G144">
         <f t="shared" si="4"/>
@@ -17988,23 +17970,23 @@
         <v>141</v>
       </c>
       <c r="B145" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C145" t="s">
-        <v>20</v>
+        <v>336</v>
       </c>
       <c r="D145" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="E145">
-        <v>12500</v>
+        <v>5</v>
       </c>
       <c r="F145" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="G145">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -18018,13 +18000,13 @@
         <v>336</v>
       </c>
       <c r="D146" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="E146">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="F146" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="G146">
         <f t="shared" si="4"/>
@@ -18036,19 +18018,19 @@
         <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C147" t="s">
-        <v>336</v>
+        <v>19</v>
       </c>
       <c r="D147" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="E147">
-        <v>10</v>
+        <v>2000000</v>
       </c>
       <c r="F147" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="G147">
         <f t="shared" si="4"/>
@@ -18060,19 +18042,19 @@
         <v>144</v>
       </c>
       <c r="B148" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C148" t="s">
-        <v>2</v>
+        <v>336</v>
       </c>
       <c r="D148" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="E148">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F148" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="G148">
         <f t="shared" si="4"/>
@@ -18084,23 +18066,23 @@
         <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C149" t="s">
         <v>336</v>
       </c>
       <c r="D149" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="E149">
-        <v>5</v>
+        <v>1200</v>
       </c>
       <c r="F149" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="G149">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -18108,19 +18090,19 @@
         <v>146</v>
       </c>
       <c r="B150" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C150" t="s">
-        <v>336</v>
+        <v>20</v>
       </c>
       <c r="D150" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="E150">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="F150" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G150">
         <f t="shared" si="4"/>
@@ -18132,19 +18114,19 @@
         <v>147</v>
       </c>
       <c r="B151" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C151" t="s">
-        <v>336</v>
+        <v>22</v>
       </c>
       <c r="D151" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="E151">
-        <v>1000</v>
+        <v>9999999</v>
       </c>
       <c r="F151" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="G151">
         <f t="shared" si="4"/>
@@ -18159,16 +18141,16 @@
         <v>334</v>
       </c>
       <c r="C152" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D152" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="E152">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F152" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="G152">
         <f t="shared" si="4"/>
@@ -18180,23 +18162,23 @@
         <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C153" t="s">
-        <v>336</v>
+        <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="E153">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="F153" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="G153">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -18207,16 +18189,16 @@
         <v>334</v>
       </c>
       <c r="C154" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="E154">
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="F154" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="G154">
         <f t="shared" si="4"/>
@@ -18228,23 +18210,23 @@
         <v>151</v>
       </c>
       <c r="B155" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C155" t="s">
-        <v>5</v>
+        <v>336</v>
       </c>
       <c r="D155" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="E155">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="F155" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="G155">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -18252,19 +18234,19 @@
         <v>152</v>
       </c>
       <c r="B156" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C156" t="s">
-        <v>6</v>
+        <v>336</v>
       </c>
       <c r="D156" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="E156">
-        <v>100000</v>
+        <v>30</v>
       </c>
       <c r="F156" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="G156">
         <f t="shared" si="4"/>
@@ -18276,23 +18258,23 @@
         <v>153</v>
       </c>
       <c r="B157" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C157" t="s">
-        <v>7</v>
+        <v>336</v>
       </c>
       <c r="D157" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="E157">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F157" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="G157">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -18300,19 +18282,19 @@
         <v>154</v>
       </c>
       <c r="B158" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="D158" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="E158">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="F158" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="G158">
         <f t="shared" si="4"/>
@@ -18327,16 +18309,16 @@
         <v>334</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D159" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="E159">
-        <v>1000</v>
+        <v>12500</v>
       </c>
       <c r="F159" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="G159">
         <f t="shared" si="4"/>
@@ -18348,19 +18330,19 @@
         <v>156</v>
       </c>
       <c r="B160" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C160" t="s">
-        <v>10</v>
+        <v>336</v>
       </c>
       <c r="D160" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="E160">
-        <v>100000</v>
+        <v>20</v>
       </c>
       <c r="F160" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="G160">
         <f t="shared" si="4"/>
@@ -18372,19 +18354,19 @@
         <v>157</v>
       </c>
       <c r="B161" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>336</v>
       </c>
       <c r="D161" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="E161">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="G161">
         <f t="shared" si="4"/>
@@ -18399,16 +18381,16 @@
         <v>334</v>
       </c>
       <c r="C162" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="E162">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F162" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="G162">
         <f t="shared" si="4"/>
@@ -18420,23 +18402,23 @@
         <v>159</v>
       </c>
       <c r="B163" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C163" t="s">
         <v>336</v>
       </c>
       <c r="D163" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="E163">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F163" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="G163">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -18444,23 +18426,23 @@
         <v>160</v>
       </c>
       <c r="B164" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C164" t="s">
         <v>336</v>
       </c>
       <c r="D164" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E164">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="F164" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G164">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -18468,23 +18450,23 @@
         <v>161</v>
       </c>
       <c r="B165" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C165" t="s">
         <v>336</v>
       </c>
       <c r="D165" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E165">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F165" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G165">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -18492,23 +18474,23 @@
         <v>162</v>
       </c>
       <c r="B166" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C166" t="s">
-        <v>336</v>
+        <v>7</v>
       </c>
       <c r="D166" t="s">
         <v>316</v>
       </c>
       <c r="E166">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F166" t="s">
         <v>317</v>
       </c>
       <c r="G166">
         <f>IF(OR(B166="asset",B166="prop",B166="vip_exp"),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -18516,16 +18498,16 @@
         <v>163</v>
       </c>
       <c r="B167" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C167" t="s">
-        <v>336</v>
+        <v>11</v>
       </c>
       <c r="D167" t="s">
         <v>316</v>
       </c>
       <c r="E167">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F167" t="s">
         <v>317</v>
@@ -18540,10 +18522,10 @@
         <v>164</v>
       </c>
       <c r="B168" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C168" t="s">
-        <v>336</v>
+        <v>12</v>
       </c>
       <c r="D168" t="s">
         <v>316</v>
@@ -18556,7 +18538,7 @@
       </c>
       <c r="G168">
         <f>IF(OR(B168="asset",B168="prop",B168="vip_exp"),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -18564,16 +18546,16 @@
         <v>165</v>
       </c>
       <c r="B169" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C169" t="s">
-        <v>19</v>
+        <v>336</v>
       </c>
       <c r="D169" t="s">
         <v>316</v>
       </c>
       <c r="E169">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F169" t="s">
         <v>317</v>
@@ -18588,23 +18570,23 @@
         <v>166</v>
       </c>
       <c r="B170" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C170" t="s">
-        <v>20</v>
+        <v>336</v>
       </c>
       <c r="D170" t="s">
         <v>316</v>
       </c>
       <c r="E170">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="F170" t="s">
         <v>317</v>
       </c>
       <c r="G170">
         <f>IF(OR(B170="asset",B170="prop",B170="vip_exp"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -18612,23 +18594,23 @@
         <v>167</v>
       </c>
       <c r="B171" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C171" t="s">
-        <v>21</v>
+        <v>336</v>
       </c>
       <c r="D171" t="s">
         <v>316</v>
       </c>
       <c r="E171">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F171" t="s">
         <v>317</v>
       </c>
       <c r="G171">
         <f>IF(OR(B171="asset",B171="prop",B171="vip_exp"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -18636,23 +18618,23 @@
         <v>168</v>
       </c>
       <c r="B172" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C172" t="s">
-        <v>22</v>
+        <v>336</v>
       </c>
       <c r="D172" t="s">
         <v>316</v>
       </c>
       <c r="E172">
-        <v>300000</v>
+        <v>100</v>
       </c>
       <c r="F172" t="s">
         <v>317</v>
       </c>
       <c r="G172">
         <f>IF(OR(B172="asset",B172="prop",B172="vip_exp"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -18660,16 +18642,16 @@
         <v>169</v>
       </c>
       <c r="B173" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C173" t="s">
-        <v>23</v>
+        <v>336</v>
       </c>
       <c r="D173" t="s">
         <v>316</v>
       </c>
       <c r="E173">
-        <v>1200</v>
+        <v>100000</v>
       </c>
       <c r="F173" t="s">
         <v>317</v>
@@ -18684,23 +18666,23 @@
         <v>170</v>
       </c>
       <c r="B174" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C174" t="s">
-        <v>24</v>
+        <v>336</v>
       </c>
       <c r="D174" t="s">
         <v>316</v>
       </c>
       <c r="E174">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="F174" t="s">
         <v>317</v>
       </c>
       <c r="G174">
         <f>IF(OR(B174="asset",B174="prop",B174="vip_exp"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -18711,13 +18693,13 @@
         <v>334</v>
       </c>
       <c r="C175" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D175" t="s">
         <v>316</v>
       </c>
       <c r="E175">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F175" t="s">
         <v>317</v>
@@ -18735,13 +18717,13 @@
         <v>334</v>
       </c>
       <c r="C176" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D176" t="s">
         <v>316</v>
       </c>
       <c r="E176">
-        <v>6000</v>
+        <v>500</v>
       </c>
       <c r="F176" t="s">
         <v>317</v>
@@ -18759,13 +18741,13 @@
         <v>334</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D177" t="s">
         <v>316</v>
       </c>
       <c r="E177">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="F177" t="s">
         <v>317</v>
@@ -18783,7 +18765,7 @@
         <v>334</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D178" t="s">
         <v>316</v>
@@ -18807,19 +18789,43 @@
         <v>334</v>
       </c>
       <c r="C179" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D179" t="s">
         <v>316</v>
       </c>
       <c r="E179">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="F179" t="s">
         <v>317</v>
       </c>
       <c r="G179">
         <f>IF(OR(B179="asset",B179="prop",B179="vip_exp"),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <v>176</v>
+      </c>
+      <c r="B180" t="s">
+        <v>334</v>
+      </c>
+      <c r="C180" t="s">
+        <v>29</v>
+      </c>
+      <c r="D180" t="s">
+        <v>316</v>
+      </c>
+      <c r="E180">
+        <v>3000</v>
+      </c>
+      <c r="F180" t="s">
+        <v>317</v>
+      </c>
+      <c r="G180">
+        <f>IF(OR(B180="asset",B180="prop",B180="vip_exp"),1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -21027,14 +21033,3535 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A5:F180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5">
+        <v>6000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8">
+        <v>25000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9">
+        <v>250</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11">
+        <v>50000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12">
+        <v>5000000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13">
+        <v>4200</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16">
+        <v>3000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>334</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>1000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" t="s">
+        <v>336</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19">
+        <v>1000</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20">
+        <v>50000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>335</v>
+      </c>
+      <c r="C21" t="s">
+        <v>336</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23">
+        <v>10000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24">
+        <v>100000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>334</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25">
+        <v>50000</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>334</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26">
+        <v>1000</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>334</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27">
+        <v>1000000</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>334</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28">
+        <v>200000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>334</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29">
+        <v>400</v>
+      </c>
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30">
+        <v>1000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31">
+        <v>1000000</v>
+      </c>
+      <c r="F31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>334</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32">
+        <v>100000</v>
+      </c>
+      <c r="F32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>334</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33">
+        <v>1000</v>
+      </c>
+      <c r="F33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34">
+        <v>10000</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>337</v>
+      </c>
+      <c r="C35" t="s">
+        <v>336</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35">
+        <v>1000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>334</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36">
+        <v>5000</v>
+      </c>
+      <c r="F36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>339</v>
+      </c>
+      <c r="C38" t="s">
+        <v>336</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>339</v>
+      </c>
+      <c r="C39" t="s">
+        <v>336</v>
+      </c>
+      <c r="D39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>334</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40">
+        <v>300000</v>
+      </c>
+      <c r="F40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>339</v>
+      </c>
+      <c r="C41" t="s">
+        <v>336</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>335</v>
+      </c>
+      <c r="C42" t="s">
+        <v>336</v>
+      </c>
+      <c r="D42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>334</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43">
+        <v>20000</v>
+      </c>
+      <c r="F43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>334</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44">
+        <v>6000</v>
+      </c>
+      <c r="F44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>334</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45">
+        <v>10000</v>
+      </c>
+      <c r="F45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>334</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46">
+        <v>3000</v>
+      </c>
+      <c r="F46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>334</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47">
+        <v>20000</v>
+      </c>
+      <c r="F47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>334</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48">
+        <v>3000</v>
+      </c>
+      <c r="F48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>334</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49">
+        <v>5000</v>
+      </c>
+      <c r="F49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>334</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50">
+        <v>1500</v>
+      </c>
+      <c r="F50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>334</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51">
+        <v>10000</v>
+      </c>
+      <c r="F51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>334</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52">
+        <v>150000</v>
+      </c>
+      <c r="F52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>334</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53">
+        <v>5000</v>
+      </c>
+      <c r="F53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>334</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54">
+        <v>20000</v>
+      </c>
+      <c r="F54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>334</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55">
+        <v>200000</v>
+      </c>
+      <c r="F55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>334</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56">
+        <v>50</v>
+      </c>
+      <c r="F56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>334</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57">
+        <v>200000</v>
+      </c>
+      <c r="F57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>334</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58">
+        <v>700</v>
+      </c>
+      <c r="F58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>334</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59">
+        <v>50</v>
+      </c>
+      <c r="F59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>56</v>
+      </c>
+      <c r="B60" t="s">
+        <v>340</v>
+      </c>
+      <c r="C60" t="s">
+        <v>336</v>
+      </c>
+      <c r="D60" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60">
+        <v>1000</v>
+      </c>
+      <c r="F60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>57</v>
+      </c>
+      <c r="B61" t="s">
+        <v>334</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61">
+        <v>500</v>
+      </c>
+      <c r="F61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="B62" t="s">
+        <v>334</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62">
+        <v>5000</v>
+      </c>
+      <c r="F62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
+        <v>334</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63">
+        <v>2500</v>
+      </c>
+      <c r="F63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>341</v>
+      </c>
+      <c r="C64" t="s">
+        <v>336</v>
+      </c>
+      <c r="D64" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64">
+        <v>2000</v>
+      </c>
+      <c r="F64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>334</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65">
+        <v>1200</v>
+      </c>
+      <c r="F65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>334</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66">
+        <v>10000</v>
+      </c>
+      <c r="F66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>334</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67">
+        <v>600</v>
+      </c>
+      <c r="F67" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
+        <v>334</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68">
+        <v>50</v>
+      </c>
+      <c r="F68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>334</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69">
+        <v>45000</v>
+      </c>
+      <c r="F69" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>66</v>
+      </c>
+      <c r="B70" t="s">
+        <v>334</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70">
+        <v>11000</v>
+      </c>
+      <c r="F70" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>67</v>
+      </c>
+      <c r="B71" t="s">
+        <v>334</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E71">
+        <v>50000</v>
+      </c>
+      <c r="F71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>68</v>
+      </c>
+      <c r="B72" t="s">
+        <v>337</v>
+      </c>
+      <c r="C72" t="s">
+        <v>336</v>
+      </c>
+      <c r="D72" t="s">
+        <v>149</v>
+      </c>
+      <c r="E72">
+        <v>3000</v>
+      </c>
+      <c r="F72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>69</v>
+      </c>
+      <c r="B73" t="s">
+        <v>334</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>169</v>
+      </c>
+      <c r="E73">
+        <v>5000</v>
+      </c>
+      <c r="F73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>70</v>
+      </c>
+      <c r="B74" t="s">
+        <v>334</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74">
+        <v>20000</v>
+      </c>
+      <c r="F74" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>71</v>
+      </c>
+      <c r="B75" t="s">
+        <v>334</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75">
+        <v>500</v>
+      </c>
+      <c r="F75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>72</v>
+      </c>
+      <c r="B76" t="s">
+        <v>334</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>175</v>
+      </c>
+      <c r="E76">
+        <v>5000</v>
+      </c>
+      <c r="F76" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>73</v>
+      </c>
+      <c r="B77" t="s">
+        <v>334</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>175</v>
+      </c>
+      <c r="E77">
+        <v>150000</v>
+      </c>
+      <c r="F77" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>74</v>
+      </c>
+      <c r="B78" t="s">
+        <v>337</v>
+      </c>
+      <c r="C78" t="s">
+        <v>336</v>
+      </c>
+      <c r="D78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78">
+        <v>1000</v>
+      </c>
+      <c r="F78" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>75</v>
+      </c>
+      <c r="B79" t="s">
+        <v>334</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>187</v>
+      </c>
+      <c r="E79">
+        <v>10000</v>
+      </c>
+      <c r="F79" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>76</v>
+      </c>
+      <c r="B80" t="s">
+        <v>334</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>187</v>
+      </c>
+      <c r="E80">
+        <v>20000</v>
+      </c>
+      <c r="F80" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>77</v>
+      </c>
+      <c r="B81" t="s">
+        <v>337</v>
+      </c>
+      <c r="C81" t="s">
+        <v>336</v>
+      </c>
+      <c r="D81" t="s">
+        <v>187</v>
+      </c>
+      <c r="E81">
+        <v>10000</v>
+      </c>
+      <c r="F81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>78</v>
+      </c>
+      <c r="B82" t="s">
+        <v>334</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s">
+        <v>187</v>
+      </c>
+      <c r="E82">
+        <v>5000</v>
+      </c>
+      <c r="F82" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>79</v>
+      </c>
+      <c r="B83" t="s">
+        <v>342</v>
+      </c>
+      <c r="C83" t="s">
+        <v>336</v>
+      </c>
+      <c r="D83" t="s">
+        <v>189</v>
+      </c>
+      <c r="E83">
+        <v>1500000</v>
+      </c>
+      <c r="F83" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>80</v>
+      </c>
+      <c r="B84" t="s">
+        <v>334</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>189</v>
+      </c>
+      <c r="E84">
+        <v>4500000</v>
+      </c>
+      <c r="F84" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>81</v>
+      </c>
+      <c r="B85" t="s">
+        <v>334</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>189</v>
+      </c>
+      <c r="E85">
+        <v>12000000</v>
+      </c>
+      <c r="F85" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>82</v>
+      </c>
+      <c r="B86" t="s">
+        <v>334</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>191</v>
+      </c>
+      <c r="E86">
+        <v>20000</v>
+      </c>
+      <c r="F86" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>83</v>
+      </c>
+      <c r="B87" t="s">
+        <v>334</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>191</v>
+      </c>
+      <c r="E87">
+        <v>50000</v>
+      </c>
+      <c r="F87" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>84</v>
+      </c>
+      <c r="B88" t="s">
+        <v>334</v>
+      </c>
+      <c r="C88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" t="s">
+        <v>191</v>
+      </c>
+      <c r="E88">
+        <v>1200</v>
+      </c>
+      <c r="F88" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>85</v>
+      </c>
+      <c r="B89" t="s">
+        <v>334</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>193</v>
+      </c>
+      <c r="E89">
+        <v>25000</v>
+      </c>
+      <c r="F89" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>86</v>
+      </c>
+      <c r="B90" t="s">
+        <v>335</v>
+      </c>
+      <c r="C90" t="s">
+        <v>336</v>
+      </c>
+      <c r="D90" t="s">
+        <v>193</v>
+      </c>
+      <c r="E90">
+        <v>250</v>
+      </c>
+      <c r="F90" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>87</v>
+      </c>
+      <c r="B91" t="s">
+        <v>337</v>
+      </c>
+      <c r="C91" t="s">
+        <v>336</v>
+      </c>
+      <c r="D91" t="s">
+        <v>193</v>
+      </c>
+      <c r="E91">
+        <v>100</v>
+      </c>
+      <c r="F91" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>88</v>
+      </c>
+      <c r="B92" t="s">
+        <v>334</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>199</v>
+      </c>
+      <c r="E92">
+        <v>5000</v>
+      </c>
+      <c r="F92" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>89</v>
+      </c>
+      <c r="B93" t="s">
+        <v>334</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>203</v>
+      </c>
+      <c r="E93">
+        <v>500000</v>
+      </c>
+      <c r="F93" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>90</v>
+      </c>
+      <c r="B94" t="s">
+        <v>334</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s">
+        <v>203</v>
+      </c>
+      <c r="E94">
+        <v>500000</v>
+      </c>
+      <c r="F94" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>91</v>
+      </c>
+      <c r="B95" t="s">
+        <v>338</v>
+      </c>
+      <c r="C95" t="s">
+        <v>336</v>
+      </c>
+      <c r="D95" t="s">
+        <v>203</v>
+      </c>
+      <c r="E95">
+        <v>500000</v>
+      </c>
+      <c r="F95" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>92</v>
+      </c>
+      <c r="B96" t="s">
+        <v>339</v>
+      </c>
+      <c r="C96" t="s">
+        <v>336</v>
+      </c>
+      <c r="D96" t="s">
+        <v>203</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>93</v>
+      </c>
+      <c r="B97" t="s">
+        <v>334</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" t="s">
+        <v>203</v>
+      </c>
+      <c r="E97">
+        <v>500000</v>
+      </c>
+      <c r="F97" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>94</v>
+      </c>
+      <c r="B98" t="s">
+        <v>334</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" t="s">
+        <v>203</v>
+      </c>
+      <c r="E98">
+        <v>500000</v>
+      </c>
+      <c r="F98" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>95</v>
+      </c>
+      <c r="B99" t="s">
+        <v>334</v>
+      </c>
+      <c r="C99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" t="s">
+        <v>203</v>
+      </c>
+      <c r="E99">
+        <v>10000</v>
+      </c>
+      <c r="F99" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>96</v>
+      </c>
+      <c r="B100" t="s">
+        <v>334</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>205</v>
+      </c>
+      <c r="E100">
+        <v>11000</v>
+      </c>
+      <c r="F100" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>97</v>
+      </c>
+      <c r="B101" t="s">
+        <v>334</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>205</v>
+      </c>
+      <c r="E101">
+        <v>30000</v>
+      </c>
+      <c r="F101" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>98</v>
+      </c>
+      <c r="B102" t="s">
+        <v>337</v>
+      </c>
+      <c r="C102" t="s">
+        <v>336</v>
+      </c>
+      <c r="D102" t="s">
+        <v>205</v>
+      </c>
+      <c r="E102">
+        <v>3000</v>
+      </c>
+      <c r="F102" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>99</v>
+      </c>
+      <c r="B103" t="s">
+        <v>334</v>
+      </c>
+      <c r="C103" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" t="s">
+        <v>205</v>
+      </c>
+      <c r="E103">
+        <v>300000</v>
+      </c>
+      <c r="F103" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>100</v>
+      </c>
+      <c r="B104" t="s">
+        <v>339</v>
+      </c>
+      <c r="C104" t="s">
+        <v>336</v>
+      </c>
+      <c r="D104" t="s">
+        <v>207</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>101</v>
+      </c>
+      <c r="B105" t="s">
+        <v>334</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>210</v>
+      </c>
+      <c r="E105">
+        <v>1000</v>
+      </c>
+      <c r="F105" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>102</v>
+      </c>
+      <c r="B106" t="s">
+        <v>334</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>212</v>
+      </c>
+      <c r="E106">
+        <v>20000</v>
+      </c>
+      <c r="F106" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>103</v>
+      </c>
+      <c r="B107" t="s">
+        <v>339</v>
+      </c>
+      <c r="C107" t="s">
+        <v>336</v>
+      </c>
+      <c r="D107" t="s">
+        <v>212</v>
+      </c>
+      <c r="E107">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>104</v>
+      </c>
+      <c r="B108" t="s">
+        <v>334</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s">
+        <v>214</v>
+      </c>
+      <c r="E108">
+        <v>20000</v>
+      </c>
+      <c r="F108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>105</v>
+      </c>
+      <c r="B109" t="s">
+        <v>334</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>218</v>
+      </c>
+      <c r="E109">
+        <v>20000</v>
+      </c>
+      <c r="F109" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>106</v>
+      </c>
+      <c r="B110" t="s">
+        <v>334</v>
+      </c>
+      <c r="C110" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" t="s">
+        <v>218</v>
+      </c>
+      <c r="E110">
+        <v>1200</v>
+      </c>
+      <c r="F110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>107</v>
+      </c>
+      <c r="B111" t="s">
+        <v>337</v>
+      </c>
+      <c r="C111" t="s">
+        <v>336</v>
+      </c>
+      <c r="D111" t="s">
+        <v>220</v>
+      </c>
+      <c r="E111">
+        <v>1000</v>
+      </c>
+      <c r="F111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>108</v>
+      </c>
+      <c r="B112" t="s">
+        <v>339</v>
+      </c>
+      <c r="C112" t="s">
+        <v>336</v>
+      </c>
+      <c r="D112" t="s">
+        <v>220</v>
+      </c>
+      <c r="E112">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>109</v>
+      </c>
+      <c r="B113" t="s">
+        <v>334</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E113">
+        <v>100000</v>
+      </c>
+      <c r="F113" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>110</v>
+      </c>
+      <c r="B114" t="s">
+        <v>334</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>224</v>
+      </c>
+      <c r="E114">
+        <v>100000</v>
+      </c>
+      <c r="F114" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>111</v>
+      </c>
+      <c r="B115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C115" t="s">
+        <v>336</v>
+      </c>
+      <c r="D115" t="s">
+        <v>224</v>
+      </c>
+      <c r="E115">
+        <v>100000</v>
+      </c>
+      <c r="F115" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>112</v>
+      </c>
+      <c r="B116" t="s">
+        <v>334</v>
+      </c>
+      <c r="C116" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" t="s">
+        <v>226</v>
+      </c>
+      <c r="E116">
+        <v>1000000</v>
+      </c>
+      <c r="F116" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>113</v>
+      </c>
+      <c r="B117" t="s">
+        <v>337</v>
+      </c>
+      <c r="C117" t="s">
+        <v>336</v>
+      </c>
+      <c r="D117" t="s">
+        <v>230</v>
+      </c>
+      <c r="E117">
+        <v>1000</v>
+      </c>
+      <c r="F117" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>114</v>
+      </c>
+      <c r="B118" t="s">
+        <v>334</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>232</v>
+      </c>
+      <c r="E118">
+        <v>100</v>
+      </c>
+      <c r="F118" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>115</v>
+      </c>
+      <c r="B119" t="s">
+        <v>334</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" t="s">
+        <v>232</v>
+      </c>
+      <c r="E119">
+        <v>1000000</v>
+      </c>
+      <c r="F119" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>116</v>
+      </c>
+      <c r="B120" t="s">
+        <v>334</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>232</v>
+      </c>
+      <c r="E120">
+        <v>50</v>
+      </c>
+      <c r="F120" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>117</v>
+      </c>
+      <c r="B121" t="s">
+        <v>337</v>
+      </c>
+      <c r="C121" t="s">
+        <v>336</v>
+      </c>
+      <c r="D121" t="s">
+        <v>232</v>
+      </c>
+      <c r="E121">
+        <v>50</v>
+      </c>
+      <c r="F121" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>118</v>
+      </c>
+      <c r="B122" t="s">
+        <v>337</v>
+      </c>
+      <c r="C122" t="s">
+        <v>336</v>
+      </c>
+      <c r="D122" t="s">
+        <v>234</v>
+      </c>
+      <c r="E122">
+        <v>20000</v>
+      </c>
+      <c r="F122" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>119</v>
+      </c>
+      <c r="B123" t="s">
+        <v>339</v>
+      </c>
+      <c r="C123" t="s">
+        <v>336</v>
+      </c>
+      <c r="D123" t="s">
+        <v>234</v>
+      </c>
+      <c r="E123">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>120</v>
+      </c>
+      <c r="B124" t="s">
+        <v>337</v>
+      </c>
+      <c r="C124" t="s">
+        <v>336</v>
+      </c>
+      <c r="D124" t="s">
+        <v>238</v>
+      </c>
+      <c r="E124">
+        <v>1200</v>
+      </c>
+      <c r="F124" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>121</v>
+      </c>
+      <c r="B125" t="s">
+        <v>334</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>240</v>
+      </c>
+      <c r="E125">
+        <v>6750000</v>
+      </c>
+      <c r="F125" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>122</v>
+      </c>
+      <c r="B126" t="s">
+        <v>334</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>240</v>
+      </c>
+      <c r="E126">
+        <v>5000000</v>
+      </c>
+      <c r="F126" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>123</v>
+      </c>
+      <c r="B127" t="s">
+        <v>334</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>240</v>
+      </c>
+      <c r="E127">
+        <v>10000</v>
+      </c>
+      <c r="F127" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>124</v>
+      </c>
+      <c r="B128" t="s">
+        <v>337</v>
+      </c>
+      <c r="C128" t="s">
+        <v>336</v>
+      </c>
+      <c r="D128" t="s">
+        <v>240</v>
+      </c>
+      <c r="E128">
+        <v>100</v>
+      </c>
+      <c r="F128" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>125</v>
+      </c>
+      <c r="B129" t="s">
+        <v>334</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" t="s">
+        <v>242</v>
+      </c>
+      <c r="E129">
+        <v>5000000</v>
+      </c>
+      <c r="F129" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>126</v>
+      </c>
+      <c r="B130" t="s">
+        <v>334</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>242</v>
+      </c>
+      <c r="E130">
+        <v>20000</v>
+      </c>
+      <c r="F130" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>127</v>
+      </c>
+      <c r="B131" t="s">
+        <v>337</v>
+      </c>
+      <c r="C131" t="s">
+        <v>336</v>
+      </c>
+      <c r="D131" t="s">
+        <v>242</v>
+      </c>
+      <c r="E131">
+        <v>2000</v>
+      </c>
+      <c r="F131" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>128</v>
+      </c>
+      <c r="B132" t="s">
+        <v>337</v>
+      </c>
+      <c r="C132" t="s">
+        <v>336</v>
+      </c>
+      <c r="D132" t="s">
+        <v>246</v>
+      </c>
+      <c r="E132">
+        <v>1000</v>
+      </c>
+      <c r="F132" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>129</v>
+      </c>
+      <c r="B133" t="s">
+        <v>339</v>
+      </c>
+      <c r="C133" t="s">
+        <v>336</v>
+      </c>
+      <c r="D133" t="s">
+        <v>246</v>
+      </c>
+      <c r="E133">
+        <v>10</v>
+      </c>
+      <c r="F133" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>130</v>
+      </c>
+      <c r="B134" t="s">
+        <v>334</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>247</v>
+      </c>
+      <c r="E134">
+        <v>100</v>
+      </c>
+      <c r="F134" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>131</v>
+      </c>
+      <c r="B135" t="s">
+        <v>338</v>
+      </c>
+      <c r="C135" t="s">
+        <v>336</v>
+      </c>
+      <c r="D135" t="s">
+        <v>247</v>
+      </c>
+      <c r="E135">
+        <v>100</v>
+      </c>
+      <c r="F135" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>132</v>
+      </c>
+      <c r="B136" t="s">
+        <v>337</v>
+      </c>
+      <c r="C136" t="s">
+        <v>336</v>
+      </c>
+      <c r="D136" t="s">
+        <v>247</v>
+      </c>
+      <c r="E136">
+        <v>50</v>
+      </c>
+      <c r="F136" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>133</v>
+      </c>
+      <c r="B137" t="s">
+        <v>334</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>251</v>
+      </c>
+      <c r="E137">
+        <v>10000</v>
+      </c>
+      <c r="F137" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>134</v>
+      </c>
+      <c r="B138" t="s">
+        <v>337</v>
+      </c>
+      <c r="C138" t="s">
+        <v>336</v>
+      </c>
+      <c r="D138" t="s">
+        <v>251</v>
+      </c>
+      <c r="E138">
+        <v>1000</v>
+      </c>
+      <c r="F138" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>135</v>
+      </c>
+      <c r="B139" t="s">
+        <v>339</v>
+      </c>
+      <c r="C139" t="s">
+        <v>336</v>
+      </c>
+      <c r="D139" t="s">
+        <v>251</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>136</v>
+      </c>
+      <c r="B140" t="s">
+        <v>334</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>255</v>
+      </c>
+      <c r="E140">
+        <v>1000</v>
+      </c>
+      <c r="F140" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>137</v>
+      </c>
+      <c r="B141" t="s">
+        <v>337</v>
+      </c>
+      <c r="C141" t="s">
+        <v>336</v>
+      </c>
+      <c r="D141" t="s">
+        <v>255</v>
+      </c>
+      <c r="E141">
+        <v>500</v>
+      </c>
+      <c r="F141" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>138</v>
+      </c>
+      <c r="B142" t="s">
+        <v>339</v>
+      </c>
+      <c r="C142" t="s">
+        <v>336</v>
+      </c>
+      <c r="D142" t="s">
+        <v>255</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>139</v>
+      </c>
+      <c r="B143" t="s">
+        <v>334</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>261</v>
+      </c>
+      <c r="E143">
+        <v>10000</v>
+      </c>
+      <c r="F143" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>140</v>
+      </c>
+      <c r="B144" t="s">
+        <v>337</v>
+      </c>
+      <c r="C144" t="s">
+        <v>336</v>
+      </c>
+      <c r="D144" t="s">
+        <v>261</v>
+      </c>
+      <c r="E144">
+        <v>500</v>
+      </c>
+      <c r="F144" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>141</v>
+      </c>
+      <c r="B145" t="s">
+        <v>339</v>
+      </c>
+      <c r="C145" t="s">
+        <v>336</v>
+      </c>
+      <c r="D145" t="s">
+        <v>261</v>
+      </c>
+      <c r="E145">
+        <v>5</v>
+      </c>
+      <c r="F145" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>142</v>
+      </c>
+      <c r="B146" t="s">
+        <v>337</v>
+      </c>
+      <c r="C146" t="s">
+        <v>336</v>
+      </c>
+      <c r="D146" t="s">
+        <v>263</v>
+      </c>
+      <c r="E146">
+        <v>1000</v>
+      </c>
+      <c r="F146" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>143</v>
+      </c>
+      <c r="B147" t="s">
+        <v>334</v>
+      </c>
+      <c r="C147" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" t="s">
+        <v>267</v>
+      </c>
+      <c r="E147">
+        <v>2000000</v>
+      </c>
+      <c r="F147" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>144</v>
+      </c>
+      <c r="B148" t="s">
+        <v>337</v>
+      </c>
+      <c r="C148" t="s">
+        <v>336</v>
+      </c>
+      <c r="D148" t="s">
+        <v>269</v>
+      </c>
+      <c r="E148">
+        <v>1000</v>
+      </c>
+      <c r="F148" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>145</v>
+      </c>
+      <c r="B149" t="s">
+        <v>337</v>
+      </c>
+      <c r="C149" t="s">
+        <v>336</v>
+      </c>
+      <c r="D149" t="s">
+        <v>271</v>
+      </c>
+      <c r="E149">
+        <v>1200</v>
+      </c>
+      <c r="F149" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>146</v>
+      </c>
+      <c r="B150" t="s">
+        <v>334</v>
+      </c>
+      <c r="C150" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" t="s">
+        <v>271</v>
+      </c>
+      <c r="E150">
+        <v>200000</v>
+      </c>
+      <c r="F150" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>147</v>
+      </c>
+      <c r="B151" t="s">
+        <v>334</v>
+      </c>
+      <c r="C151" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" t="s">
+        <v>273</v>
+      </c>
+      <c r="E151">
+        <v>9999999</v>
+      </c>
+      <c r="F151" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>148</v>
+      </c>
+      <c r="B152" t="s">
+        <v>334</v>
+      </c>
+      <c r="C152" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" t="s">
+        <v>279</v>
+      </c>
+      <c r="E152">
+        <v>10000</v>
+      </c>
+      <c r="F152" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>149</v>
+      </c>
+      <c r="B153" t="s">
+        <v>334</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>281</v>
+      </c>
+      <c r="E153">
+        <v>100000</v>
+      </c>
+      <c r="F153" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>150</v>
+      </c>
+      <c r="B154" t="s">
+        <v>334</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>283</v>
+      </c>
+      <c r="E154">
+        <v>10000</v>
+      </c>
+      <c r="F154" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>151</v>
+      </c>
+      <c r="B155" t="s">
+        <v>339</v>
+      </c>
+      <c r="C155" t="s">
+        <v>336</v>
+      </c>
+      <c r="D155" t="s">
+        <v>289</v>
+      </c>
+      <c r="E155">
+        <v>1000</v>
+      </c>
+      <c r="F155" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>152</v>
+      </c>
+      <c r="B156" t="s">
+        <v>337</v>
+      </c>
+      <c r="C156" t="s">
+        <v>336</v>
+      </c>
+      <c r="D156" t="s">
+        <v>293</v>
+      </c>
+      <c r="E156">
+        <v>30</v>
+      </c>
+      <c r="F156" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>153</v>
+      </c>
+      <c r="B157" t="s">
+        <v>339</v>
+      </c>
+      <c r="C157" t="s">
+        <v>336</v>
+      </c>
+      <c r="D157" t="s">
+        <v>295</v>
+      </c>
+      <c r="E157">
+        <v>100</v>
+      </c>
+      <c r="F157" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>154</v>
+      </c>
+      <c r="B158" t="s">
+        <v>337</v>
+      </c>
+      <c r="C158" t="s">
+        <v>336</v>
+      </c>
+      <c r="D158" t="s">
+        <v>297</v>
+      </c>
+      <c r="E158">
+        <v>1000</v>
+      </c>
+      <c r="F158" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>155</v>
+      </c>
+      <c r="B159" t="s">
+        <v>334</v>
+      </c>
+      <c r="C159" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" t="s">
+        <v>297</v>
+      </c>
+      <c r="E159">
+        <v>12500</v>
+      </c>
+      <c r="F159" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>156</v>
+      </c>
+      <c r="B160" t="s">
+        <v>337</v>
+      </c>
+      <c r="C160" t="s">
+        <v>336</v>
+      </c>
+      <c r="D160" t="s">
+        <v>299</v>
+      </c>
+      <c r="E160">
+        <v>20</v>
+      </c>
+      <c r="F160" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>157</v>
+      </c>
+      <c r="B161" t="s">
+        <v>337</v>
+      </c>
+      <c r="C161" t="s">
+        <v>336</v>
+      </c>
+      <c r="D161" t="s">
+        <v>301</v>
+      </c>
+      <c r="E161">
+        <v>10</v>
+      </c>
+      <c r="F161" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>158</v>
+      </c>
+      <c r="B162" t="s">
+        <v>334</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" t="s">
+        <v>303</v>
+      </c>
+      <c r="E162">
+        <v>10000</v>
+      </c>
+      <c r="F162" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>159</v>
+      </c>
+      <c r="B163" t="s">
+        <v>339</v>
+      </c>
+      <c r="C163" t="s">
+        <v>336</v>
+      </c>
+      <c r="D163" t="s">
+        <v>303</v>
+      </c>
+      <c r="E163">
+        <v>5</v>
+      </c>
+      <c r="F163" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>160</v>
+      </c>
+      <c r="B164" t="s">
+        <v>337</v>
+      </c>
+      <c r="C164" t="s">
+        <v>336</v>
+      </c>
+      <c r="D164" t="s">
+        <v>306</v>
+      </c>
+      <c r="E164">
+        <v>5000</v>
+      </c>
+      <c r="F164" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>161</v>
+      </c>
+      <c r="B165" t="s">
+        <v>337</v>
+      </c>
+      <c r="C165" t="s">
+        <v>336</v>
+      </c>
+      <c r="D165" t="s">
+        <v>308</v>
+      </c>
+      <c r="E165">
+        <v>1000</v>
+      </c>
+      <c r="F165" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>162</v>
+      </c>
+      <c r="B166" t="s">
+        <v>334</v>
+      </c>
+      <c r="C166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" t="s">
+        <v>316</v>
+      </c>
+      <c r="E166">
+        <v>1000</v>
+      </c>
+      <c r="F166" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>163</v>
+      </c>
+      <c r="B167" t="s">
+        <v>334</v>
+      </c>
+      <c r="C167" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s">
+        <v>316</v>
+      </c>
+      <c r="E167">
+        <v>10000</v>
+      </c>
+      <c r="F167" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>164</v>
+      </c>
+      <c r="B168" t="s">
+        <v>334</v>
+      </c>
+      <c r="C168" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" t="s">
+        <v>316</v>
+      </c>
+      <c r="E168">
+        <v>100</v>
+      </c>
+      <c r="F168" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>165</v>
+      </c>
+      <c r="B169" t="s">
+        <v>338</v>
+      </c>
+      <c r="C169" t="s">
+        <v>336</v>
+      </c>
+      <c r="D169" t="s">
+        <v>316</v>
+      </c>
+      <c r="E169">
+        <v>100</v>
+      </c>
+      <c r="F169" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>166</v>
+      </c>
+      <c r="B170" t="s">
+        <v>340</v>
+      </c>
+      <c r="C170" t="s">
+        <v>336</v>
+      </c>
+      <c r="D170" t="s">
+        <v>316</v>
+      </c>
+      <c r="E170">
+        <v>100</v>
+      </c>
+      <c r="F170" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>167</v>
+      </c>
+      <c r="B171" t="s">
+        <v>341</v>
+      </c>
+      <c r="C171" t="s">
+        <v>336</v>
+      </c>
+      <c r="D171" t="s">
+        <v>316</v>
+      </c>
+      <c r="E171">
+        <v>100</v>
+      </c>
+      <c r="F171" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>168</v>
+      </c>
+      <c r="B172" t="s">
+        <v>335</v>
+      </c>
+      <c r="C172" t="s">
+        <v>336</v>
+      </c>
+      <c r="D172" t="s">
+        <v>316</v>
+      </c>
+      <c r="E172">
+        <v>100</v>
+      </c>
+      <c r="F172" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>169</v>
+      </c>
+      <c r="B173" t="s">
+        <v>337</v>
+      </c>
+      <c r="C173" t="s">
+        <v>336</v>
+      </c>
+      <c r="D173" t="s">
+        <v>316</v>
+      </c>
+      <c r="E173">
+        <v>100000</v>
+      </c>
+      <c r="F173" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>170</v>
+      </c>
+      <c r="B174" t="s">
+        <v>339</v>
+      </c>
+      <c r="C174" t="s">
+        <v>336</v>
+      </c>
+      <c r="D174" t="s">
+        <v>316</v>
+      </c>
+      <c r="E174">
+        <v>100</v>
+      </c>
+      <c r="F174" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>171</v>
+      </c>
+      <c r="B175" t="s">
+        <v>334</v>
+      </c>
+      <c r="C175" t="s">
+        <v>21</v>
+      </c>
+      <c r="D175" t="s">
+        <v>316</v>
+      </c>
+      <c r="E175">
+        <v>1000</v>
+      </c>
+      <c r="F175" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>172</v>
+      </c>
+      <c r="B176" t="s">
+        <v>334</v>
+      </c>
+      <c r="C176" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" t="s">
+        <v>316</v>
+      </c>
+      <c r="E176">
+        <v>500</v>
+      </c>
+      <c r="F176" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>173</v>
+      </c>
+      <c r="B177" t="s">
+        <v>334</v>
+      </c>
+      <c r="C177" t="s">
+        <v>26</v>
+      </c>
+      <c r="D177" t="s">
+        <v>316</v>
+      </c>
+      <c r="E177">
+        <v>6000</v>
+      </c>
+      <c r="F177" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>174</v>
+      </c>
+      <c r="B178" t="s">
+        <v>334</v>
+      </c>
+      <c r="C178" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178" t="s">
+        <v>316</v>
+      </c>
+      <c r="E178">
+        <v>10000</v>
+      </c>
+      <c r="F178" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>175</v>
+      </c>
+      <c r="B179" t="s">
+        <v>334</v>
+      </c>
+      <c r="C179" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" t="s">
+        <v>316</v>
+      </c>
+      <c r="E179">
+        <v>10000</v>
+      </c>
+      <c r="F179" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>176</v>
+      </c>
+      <c r="B180" t="s">
+        <v>334</v>
+      </c>
+      <c r="C180" t="s">
+        <v>29</v>
+      </c>
+      <c r="D180" t="s">
+        <v>316</v>
+      </c>
+      <c r="E180">
+        <v>3000</v>
+      </c>
+      <c r="F180" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
